--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H2">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I2">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J2">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N2">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q2">
-        <v>2.727298870545778</v>
+        <v>0.6142369984511111</v>
       </c>
       <c r="R2">
-        <v>24.545689834912</v>
+        <v>5.52813298606</v>
       </c>
       <c r="S2">
-        <v>0.0233303103717992</v>
+        <v>0.005922909240051363</v>
       </c>
       <c r="T2">
-        <v>0.0233303103717992</v>
+        <v>0.005922909240051365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H3">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I3">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J3">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.889343</v>
       </c>
       <c r="O3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q3">
-        <v>0.8378154758082222</v>
+        <v>0.2121874288572222</v>
       </c>
       <c r="R3">
-        <v>7.540339282274001</v>
+        <v>1.909686859715</v>
       </c>
       <c r="S3">
-        <v>0.007166979496086862</v>
+        <v>0.00204606183959987</v>
       </c>
       <c r="T3">
-        <v>0.007166979496086864</v>
+        <v>0.002046061839599871</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H4">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I4">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J4">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N4">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q4">
-        <v>0.481767545564</v>
+        <v>0.06953667366111112</v>
       </c>
       <c r="R4">
-        <v>4.335907910076001</v>
+        <v>0.6258300629500001</v>
       </c>
       <c r="S4">
-        <v>0.004121215495102216</v>
+        <v>0.0006705219776542203</v>
       </c>
       <c r="T4">
-        <v>0.004121215495102217</v>
+        <v>0.0006705219776542205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>45.968478</v>
       </c>
       <c r="I5">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J5">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N5">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q5">
-        <v>64.66633008519466</v>
+        <v>57.50560574757067</v>
       </c>
       <c r="R5">
-        <v>581.9969707667519</v>
+        <v>517.550451728136</v>
       </c>
       <c r="S5">
-        <v>0.5531793995099974</v>
+        <v>0.5545098789162999</v>
       </c>
       <c r="T5">
-        <v>0.5531793995099975</v>
+        <v>0.5545098789163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.968478</v>
       </c>
       <c r="I6">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J6">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.889343</v>
       </c>
       <c r="O6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q6">
-        <v>19.86524201443933</v>
+        <v>19.86524201443934</v>
       </c>
       <c r="R6">
         <v>178.787178129954</v>
       </c>
       <c r="S6">
-        <v>0.1699345336930487</v>
+        <v>0.1915547675895075</v>
       </c>
       <c r="T6">
-        <v>0.1699345336930487</v>
+        <v>0.1915547675895076</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.968478</v>
       </c>
       <c r="I7">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J7">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N7">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q7">
-        <v>11.423074846044</v>
+        <v>6.510106930446668</v>
       </c>
       <c r="R7">
-        <v>102.807673614396</v>
+        <v>58.59096237402001</v>
       </c>
       <c r="S7">
-        <v>0.09771715320116969</v>
+        <v>0.06277507312209554</v>
       </c>
       <c r="T7">
-        <v>0.09771715320116971</v>
+        <v>0.06277507312209556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H8">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N8">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O8">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P8">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q8">
-        <v>11.38790253873067</v>
+        <v>12.97657395075644</v>
       </c>
       <c r="R8">
-        <v>102.491122848576</v>
+        <v>116.789165556808</v>
       </c>
       <c r="S8">
-        <v>0.09741627644175969</v>
+        <v>0.1251293392468324</v>
       </c>
       <c r="T8">
-        <v>0.09741627644175971</v>
+        <v>0.1251293392468324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H9">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.889343</v>
       </c>
       <c r="O9">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P9">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q9">
-        <v>3.498318826361333</v>
+        <v>4.482741790106889</v>
       </c>
       <c r="R9">
-        <v>31.48486943725201</v>
+        <v>40.34467611096201</v>
       </c>
       <c r="S9">
-        <v>0.0299258966004651</v>
+        <v>0.0432257790337287</v>
       </c>
       <c r="T9">
-        <v>0.02992589660046511</v>
+        <v>0.04322577903372871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H10">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N10">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O10">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P10">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q10">
-        <v>2.011632063672</v>
+        <v>1.469054762784445</v>
       </c>
       <c r="R10">
-        <v>18.104688573048</v>
+        <v>13.22149286506</v>
       </c>
       <c r="S10">
-        <v>0.01720823519057111</v>
+        <v>0.01416566903423027</v>
       </c>
       <c r="T10">
-        <v>0.01720823519057111</v>
+        <v>0.01416566903423027</v>
       </c>
     </row>
   </sheetData>
